--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,19 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kailas\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kailas\excell\Advanced_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D81004-E67C-4885-9C6F-2C8351A30295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F95FB-37F1-4A1A-BDF2-10C55C04C440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14595" yWindow="0" windowWidth="13995" windowHeight="15600" activeTab="1" xr2:uid="{1BDA2865-ADD3-4DB1-8283-A03A46168DDC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{1BDA2865-ADD3-4DB1-8283-A03A46168DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="2024" sheetId="2" r:id="rId3"/>
+    <sheet name="2025" sheetId="4" r:id="rId4"/>
+    <sheet name="2026" sheetId="5" r:id="rId5"/>
+    <sheet name="2027" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Z_3604A9D1_164B_4B36_BF52_C38C9B858E9C_.wvu.Cols" localSheetId="2" hidden="1">'2024'!$A:$C,'2024'!$F:$K,'2024'!$M:$N</definedName>
+    <definedName name="Z_3604A9D1_164B_4B36_BF52_C38C9B858E9C_.wvu.Rows" localSheetId="2" hidden="1">'2024'!$1:$1,'2024'!$14:$17,'2024'!$20:$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="ceo view" guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}" xWindow="973" windowWidth="933" windowHeight="1040" activeSheetId="2"/>
+    <customWorkbookView name="original view" guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}" xWindow="973" windowWidth="933" windowHeight="1040" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,8 +70,107 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{CF5AC642-270A-47C0-8177-AABFD18EA77B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>uitigtik</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{EF3BAC4E-11B4-4B96-A478-A214F2E84FAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>uitigtik</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="L10" authorId="0" shapeId="0" xr:uid="{FF44CDA3-AB47-4869-AF97-F92D7526B130}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ADMIN:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>uitigtik</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="65">
   <si>
     <t>kailash</t>
   </si>
@@ -230,6 +340,36 @@
   </si>
   <si>
     <t>taxes(use absolte cell refer $)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>order extra for holidays</t>
+  </si>
+  <si>
+    <t>qtrs. 1</t>
+  </si>
+  <si>
+    <t>qtrs. 2</t>
+  </si>
+  <si>
+    <t>qtrs. 3</t>
+  </si>
+  <si>
+    <t>qtrs. 4</t>
+  </si>
+  <si>
+    <t>taxes(use absolute cell refer $)</t>
+  </si>
+  <si>
+    <t>blueberry muffins</t>
   </si>
 </sst>
 </file>
@@ -237,18 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -280,16 +412,88 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -297,24 +501,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="7"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50"/>
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -714,366 +1001,21 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}" scale="85">
+      <selection activeCell="G20" sqref="G20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}" scale="85">
+      <selection activeCell="G20" sqref="G20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599158A5-0BF7-4FD5-81E9-F2939089A38B}">
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" customWidth="1"/>
-    <col min="7" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="6">
-        <v>7.2499999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="G4">
-        <v>357</v>
-      </c>
-      <c r="H4">
-        <v>345</v>
-      </c>
-      <c r="I4">
-        <v>256</v>
-      </c>
-      <c r="J4">
-        <v>789</v>
-      </c>
-      <c r="K4">
-        <f>SUM(G4:J4)</f>
-        <v>1747</v>
-      </c>
-      <c r="L4" s="2">
-        <f>E4*K4</f>
-        <v>3057.25</v>
-      </c>
-      <c r="M4" s="2">
-        <f>L4*$M$1</f>
-        <v>221.65062499999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>657</v>
-      </c>
-      <c r="H5">
-        <v>657</v>
-      </c>
-      <c r="I5">
-        <v>657</v>
-      </c>
-      <c r="J5">
-        <v>657</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K9" si="0">SUM(G5:J5)</f>
-        <v>2628</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:L9" si="1">E5*K5</f>
-        <v>5256</v>
-      </c>
-      <c r="M5" s="2">
-        <f>L5*$M$1</f>
-        <v>381.05999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3.25</v>
-      </c>
-      <c r="G6">
-        <v>957</v>
-      </c>
-      <c r="H6">
-        <v>957</v>
-      </c>
-      <c r="I6">
-        <v>957</v>
-      </c>
-      <c r="J6">
-        <v>957</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>3828</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="1"/>
-        <v>12441</v>
-      </c>
-      <c r="M6" s="2">
-        <f>L6*$M$1</f>
-        <v>901.97249999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G7">
-        <v>357</v>
-      </c>
-      <c r="H7">
-        <v>357</v>
-      </c>
-      <c r="I7">
-        <v>357</v>
-      </c>
-      <c r="J7">
-        <v>357</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1428</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>2142</v>
-      </c>
-      <c r="M7" s="2">
-        <f>L7*$M$1</f>
-        <v>155.29499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>657</v>
-      </c>
-      <c r="H8">
-        <v>657</v>
-      </c>
-      <c r="I8">
-        <v>657</v>
-      </c>
-      <c r="J8">
-        <v>657</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>2628</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="1"/>
-        <v>7884</v>
-      </c>
-      <c r="M8" s="2">
-        <f>L8*$M$1</f>
-        <v>571.58999999999992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>957</v>
-      </c>
-      <c r="H9">
-        <v>957</v>
-      </c>
-      <c r="I9">
-        <v>957</v>
-      </c>
-      <c r="J9">
-        <v>957</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>3828</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="1"/>
-        <v>3828</v>
-      </c>
-      <c r="M9" s="2">
-        <f>L9*$M$1</f>
-        <v>277.52999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="G14">
-        <f>SUM(G4:G9)</f>
-        <v>3942</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:J14" si="2">SUM(H4:H9)</f>
-        <v>3930</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>3841</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="G15">
-        <f>AVERAGE(G4:G9)</f>
-        <v>657</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:J15" si="3">AVERAGE(H4:H9)</f>
-        <v>655</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>640.16666666666663</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="3"/>
-        <v>729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="G16">
-        <f>MIN(G4:G9)</f>
-        <v>357</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:J16" si="4">MIN(H4:H9)</f>
-        <v>345</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="G17">
-        <f>MAX(G4:G9)</f>
-        <v>957</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17:J17" si="5">MAX(H4:H9)</f>
-        <v>957</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
-        <v>957</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="5"/>
-        <v>957</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674651F-4B82-41D4-B59D-113ABC4AC7B8}">
   <dimension ref="B1:H10"/>
   <sheetViews>
@@ -1111,10 +1053,10 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>45272</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
@@ -1134,10 +1076,10 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>45273</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G4" t="s">
@@ -1157,10 +1099,10 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>45274</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G5" t="s">
@@ -1180,10 +1122,10 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>45275</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
@@ -1203,10 +1145,10 @@
       <c r="D7">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>45276</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G7" t="s">
@@ -1226,10 +1168,10 @@
       <c r="D8">
         <v>12</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>45277</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G8" t="s">
@@ -1249,10 +1191,10 @@
       <c r="D9">
         <v>14</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>45278</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G9" t="s">
@@ -1272,10 +1214,10 @@
       <c r="D10">
         <v>16</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>45279</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G10" t="s">
@@ -1286,7 +1228,1676 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <customSheetViews>
+    <customSheetView guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}">
+      <selection activeCell="I18" sqref="I18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}">
+      <selection activeCell="I18" sqref="I18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599158A5-0BF7-4FD5-81E9-F2939089A38B}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="G4" s="10">
+        <v>357</v>
+      </c>
+      <c r="H4" s="10">
+        <v>345</v>
+      </c>
+      <c r="I4" s="10">
+        <v>256</v>
+      </c>
+      <c r="J4" s="10">
+        <v>789</v>
+      </c>
+      <c r="K4" s="12">
+        <f>SUM(G4:J4)</f>
+        <v>1747</v>
+      </c>
+      <c r="L4" s="13">
+        <f>E4*K4</f>
+        <v>3057.25</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M9" si="0">L4*$M$1</f>
+        <v>221.65062499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>45331</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>657</v>
+      </c>
+      <c r="H5" s="10">
+        <v>657</v>
+      </c>
+      <c r="I5" s="10">
+        <v>657</v>
+      </c>
+      <c r="J5" s="10">
+        <v>657</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K9" si="1">SUM(G5:J5)</f>
+        <v>2628</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L9" si="2">E5*K5</f>
+        <v>5256</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>381.05999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>45332</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="G6" s="10">
+        <v>957</v>
+      </c>
+      <c r="H6" s="10">
+        <v>957</v>
+      </c>
+      <c r="I6" s="10">
+        <v>957</v>
+      </c>
+      <c r="J6" s="10">
+        <v>957</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>3828</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>12441</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>901.97249999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>45333</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>357</v>
+      </c>
+      <c r="H7" s="10">
+        <v>357</v>
+      </c>
+      <c r="I7" s="10">
+        <v>357</v>
+      </c>
+      <c r="J7" s="10">
+        <v>357</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>1428</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>2142</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>155.29499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>45334</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>657</v>
+      </c>
+      <c r="H8" s="10">
+        <v>657</v>
+      </c>
+      <c r="I8" s="10">
+        <v>657</v>
+      </c>
+      <c r="J8" s="10">
+        <v>657</v>
+      </c>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>2628</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>7884</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>571.58999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>45335</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>957</v>
+      </c>
+      <c r="H9" s="10">
+        <v>957</v>
+      </c>
+      <c r="I9" s="10">
+        <v>957</v>
+      </c>
+      <c r="J9" s="10">
+        <v>957</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>3828</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="2"/>
+        <v>3828</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>277.52999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>45336</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>45337</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>45338</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>45339</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>45340</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <f>SUM(G4:G9)</f>
+        <v>3942</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:J14" si="3">SUM(H4:H9)</f>
+        <v>3930</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>3841</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="3"/>
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>45341</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16">
+        <f>AVERAGE(G4:G9)</f>
+        <v>657</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" ref="H15:J15" si="4">AVERAGE(H4:H9)</f>
+        <v>655</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" si="4"/>
+        <v>640.16666666666663</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="4"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>45342</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <f>MIN(G4:G9)</f>
+        <v>357</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16:J16" si="5">MIN(H4:H9)</f>
+        <v>345</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>45343</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="D17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <f>MAX(G4:G9)</f>
+        <v>957</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" ref="H17:J17" si="6">MAX(H4:H9)</f>
+        <v>957</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="6"/>
+        <v>957</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="6"/>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>45344</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>45345</v>
+      </c>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>45346</v>
+      </c>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>45347</v>
+      </c>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>45348</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>45349</v>
+      </c>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}" hiddenRows="1" hiddenColumns="1" topLeftCell="D2">
+      <selection activeCell="K2" sqref="K1:K1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}">
+      <selection activeCell="N24" sqref="N24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="4">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;A&amp;R&amp;G
+</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570101D0-AFF6-4FCF-817F-7D0834E95647}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="7" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12">
+        <f>SUM(G4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <f>E4*K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M9" si="0">L4*$M$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K9" si="1">SUM(G5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L9" si="2">E5*K5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:J14" si="3">SUM(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="e">
+        <f>AVERAGE(G4:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="16" t="e">
+        <f t="shared" ref="H15:J15" si="4">AVERAGE(H4:H9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <f>MIN(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16:J16" si="5">MIN(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="D17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <f>MAX(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" ref="H17:J17" si="6">MAX(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}">
+      <selection activeCell="C32" sqref="C32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}">
+      <selection activeCell="C32" sqref="C32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="4">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AACE2C-FD07-4EE6-AE33-770D12F0AD2E}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="7" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12">
+        <f>SUM(G4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <f>E4*K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M9" si="0">L4*$M$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K9" si="1">SUM(G5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L9" si="2">E5*K5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:J14" si="3">SUM(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="e">
+        <f>AVERAGE(G4:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="16" t="e">
+        <f t="shared" ref="H15:J15" si="4">AVERAGE(H4:H9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <f>MIN(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16:J16" si="5">MIN(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="D17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <f>MAX(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" ref="H17:J17" si="6">MAX(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}">
+      <selection activeCell="C32" sqref="C32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}">
+      <selection activeCell="C32" sqref="C32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="4">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC80DCE-292C-4923-B63F-7F91C6AD103D}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
+    <col min="7" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="5">
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="12">
+        <f>SUM(G4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="13">
+        <f>E4*K4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <f t="shared" ref="M4:M9" si="0">L4*$M$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11"/>
+      <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12">
+        <f t="shared" ref="K5:K9" si="1">SUM(G5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L9" si="2">E5*K5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11"/>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="9">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="D14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <f>SUM(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" ref="H14:J14" si="3">SUM(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="e">
+        <f>AVERAGE(G4:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="16" t="e">
+        <f t="shared" ref="H15:J15" si="4">AVERAGE(H4:H9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="16" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16">
+        <f>MIN(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" ref="H16:J16" si="5">MIN(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="D17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16">
+        <f>MAX(G4:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" ref="H17:J17" si="6">MAX(H4:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3604A9D1-164B-4B36-BF52-C38C9B858E9C}">
+      <selection activeCell="C32" sqref="C32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0CDDA523-7C1D-487A-BB9A-97DE69C414E9}">
+      <selection activeCell="C32" sqref="C32"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="4">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>